--- a/biology/Zoologie/Grand-duc_ascalaphe/Grand-duc_ascalaphe.xlsx
+++ b/biology/Zoologie/Grand-duc_ascalaphe/Grand-duc_ascalaphe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bubo ascalaphus
 Le Grand-duc ascalaphe ou Grand-duc du désert (Bubo ascalaphus) est une espèce de rapace nocturne appartenant à la famille des Strigidae et à la sous-famille des Striginae. On le trouve en Algérie, Arabie saoudite, Égypte, Émirats arabes unis, Érythrée, Irak, Israël, Jordanie, Koweït, Libye, Mali, Maroc, Mauritanie, Niger, Oman, Qatar, Sahara occidental, Sénégal, Soudan, Tchad et Tunisie.
